--- a/src/main/resources/data/farmList.xlsx
+++ b/src/main/resources/data/farmList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\farming-fam\gardendoctor-backend\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87D1A14-1FF2-45B4-8BCB-715CE2A750BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D27F306-351E-48E8-8DBB-EA17BAF37F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="1340" windowWidth="22910" windowHeight="13940" xr2:uid="{3EA12DA0-5106-4996-8954-4D38739A361D}"/>
+    <workbookView xWindow="1900" yWindow="1340" windowWidth="22910" windowHeight="13940" xr2:uid="{3EA12DA0-5106-4996-8954-4D38739A361D}"/>
   </bookViews>
   <sheets>
     <sheet name="텃밭 분양 정보" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="1054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="1052">
   <si>
     <t>5121</t>
   </si>
@@ -3176,35 +3176,13 @@
   </si>
   <si>
     <t>imageUrl</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기타</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>(Other)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3219,25 +3197,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3261,7 +3220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3274,12 +3233,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3616,10 +3569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0763DC3A-B832-462F-9790-09842767DE6B}">
-  <dimension ref="A1:L174"/>
+  <dimension ref="A1:L173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -9692,35 +9645,6 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="16" x14ac:dyDescent="0.25">
-      <c r="A174" s="4">
-        <v>1</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F174" s="3">
-        <v>20250709</v>
-      </c>
-      <c r="G174" s="4">
-        <v>20250709</v>
-      </c>
-      <c r="H174" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I174" s="5" t="s">
-        <v>1052</v>
-      </c>
-      <c r="J174" s="4"/>
-      <c r="K174" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/data/farmList.xlsx
+++ b/src/main/resources/data/farmList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\farming-fam\gardendoctor-backend\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D27F306-351E-48E8-8DBB-EA17BAF37F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8244D176-0161-4CD2-AAD0-E84D04FD3C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1340" windowWidth="22910" windowHeight="13940" xr2:uid="{3EA12DA0-5106-4996-8954-4D38739A361D}"/>
+    <workbookView xWindow="1310" yWindow="3870" windowWidth="20060" windowHeight="13940" xr2:uid="{3EA12DA0-5106-4996-8954-4D38739A361D}"/>
   </bookViews>
   <sheets>
     <sheet name="텃밭 분양 정보" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="1051">
   <si>
     <t>5121</t>
   </si>
@@ -3148,9 +3148,6 @@
     <t>operator</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>roadNameAddress</t>
   </si>
   <si>
@@ -3175,7 +3172,8 @@
     <t>longitude</t>
   </si>
   <si>
-    <t>imageUrl</t>
+    <t>farmName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3569,10 +3567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0763DC3A-B832-462F-9790-09842767DE6B}">
-  <dimension ref="A1:L173"/>
+  <dimension ref="A1:K173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="A176" sqref="A176"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3587,7 +3585,7 @@
     <col min="10" max="11" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1040</v>
       </c>
@@ -3595,37 +3593,34 @@
         <v>1041</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1042</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>1043</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>1044</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>1045</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>1046</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>1047</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>1048</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>1049</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3660,7 +3655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -3695,7 +3690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -3730,7 +3725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -3765,7 +3760,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
@@ -3800,7 +3795,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -3835,7 +3830,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>50</v>
       </c>
@@ -3870,7 +3865,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>55</v>
       </c>
@@ -3905,7 +3900,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>60</v>
       </c>
@@ -3940,7 +3935,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>65</v>
       </c>
@@ -3975,7 +3970,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>72</v>
       </c>
@@ -4010,7 +4005,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>80</v>
       </c>
@@ -4045,7 +4040,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>88</v>
       </c>
@@ -4080,7 +4075,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>95</v>
       </c>
@@ -4115,7 +4110,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>103</v>
       </c>
